--- a/interface/param.xlsx
+++ b/interface/param.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FF\Documents\project\interface\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560525B0-B18C-4F96-A5D5-AF8A3566AB18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBFDEE3-1DFF-4806-9C1F-ADF352FA9D14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12375" xr2:uid="{5EF9301F-CEBC-49BE-AF3E-124149D65DD3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t>Система</t>
   </si>
@@ -249,13 +249,112 @@
     <t xml:space="preserve">Направление движения </t>
   </si>
   <si>
-    <t>buttons</t>
-  </si>
-  <si>
-    <t>Калибровка</t>
-  </si>
-  <si>
     <t>Скорость движения во время калибровки</t>
+  </si>
+  <si>
+    <t>АЦП критической перегрузки датчика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 0% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 20% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 30% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 40% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 50% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 60% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 70% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 80% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 90% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 10% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 0 датчика 100% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 0% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 10% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 20% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 30% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 40% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 50% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 60% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 70% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 80% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 90% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 датчика 100% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 0% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 10% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 20% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 30% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 40% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 50% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 60% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 70% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 80% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 90% нагрузки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 датчика 100% нагрузки </t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -608,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9896B60-7A1A-4EB5-993B-8A7E835A682D}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +718,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -653,7 +752,7 @@
         <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -675,6 +774,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -700,6 +802,9 @@
       </c>
       <c r="H3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,6 +832,9 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -753,6 +861,9 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -779,6 +890,9 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -802,6 +916,9 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -825,6 +942,9 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -848,6 +968,9 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -871,6 +994,9 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -894,6 +1020,9 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -920,6 +1049,9 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -943,6 +1075,9 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -966,6 +1101,9 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -974,6 +1112,12 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>65535</v>
+      </c>
       <c r="F15">
         <v>1</v>
       </c>
@@ -982,6 +1126,9 @@
       </c>
       <c r="H15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -991,6 +1138,12 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>65535</v>
+      </c>
       <c r="F16">
         <v>1</v>
       </c>
@@ -999,6 +1152,9 @@
       </c>
       <c r="H16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,6 +1164,12 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>65535</v>
+      </c>
       <c r="F17">
         <v>1</v>
       </c>
@@ -1016,6 +1178,9 @@
       </c>
       <c r="H17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1025,6 +1190,12 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>65535</v>
+      </c>
       <c r="E18" t="s">
         <v>68</v>
       </c>
@@ -1036,6 +1207,9 @@
       </c>
       <c r="H18">
         <v>1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1045,6 +1219,12 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>65535</v>
+      </c>
       <c r="E19" t="s">
         <v>70</v>
       </c>
@@ -1056,6 +1236,9 @@
       </c>
       <c r="H19">
         <v>1</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1065,6 +1248,12 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>65535</v>
+      </c>
       <c r="E20" t="s">
         <v>69</v>
       </c>
@@ -1076,6 +1265,9 @@
       </c>
       <c r="H20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,6 +1292,9 @@
       <c r="H21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1108,6 +1303,12 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>65535</v>
+      </c>
       <c r="E22" t="s">
         <v>71</v>
       </c>
@@ -1119,6 +1320,9 @@
       </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1128,6 +1332,12 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>65535</v>
+      </c>
       <c r="E23" t="s">
         <v>71</v>
       </c>
@@ -1139,6 +1349,9 @@
       </c>
       <c r="H23">
         <v>1</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1161,7 +1374,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,6 +1387,12 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>20000</v>
+      </c>
       <c r="E25" t="s">
         <v>72</v>
       </c>
@@ -1182,6 +1404,9 @@
       </c>
       <c r="H25">
         <v>0</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1205,29 +1430,59 @@
       </c>
       <c r="H26">
         <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>65535</v>
+      </c>
+      <c r="F29">
+        <v>60000</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1242,10 +1497,13 @@
         <v>5</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1270,13 +1528,22 @@
       <c r="H31">
         <v>1</v>
       </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>65535</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1284,16 +1551,22 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>65535</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1301,13 +1574,22 @@
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>65535</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1315,13 +1597,22 @@
       <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>65535</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1329,13 +1620,22 @@
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>65535</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1343,13 +1643,22 @@
       <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>65535</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1357,13 +1666,22 @@
       <c r="H37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>65535</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1371,13 +1689,22 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>65535</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1385,13 +1712,22 @@
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>83</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>65535</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1399,13 +1735,22 @@
       <c r="H40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>65535</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1413,13 +1758,22 @@
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>65535</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1427,58 +1781,94 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>65535</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1486,8 +1876,8 @@
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" t="s">
-        <v>75</v>
+      <c r="I52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,12 +1885,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>65535</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
     </row>
@@ -1509,12 +1908,21 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>65535</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
     </row>
@@ -1523,12 +1931,21 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>65535</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>1</v>
       </c>
     </row>
@@ -1537,12 +1954,21 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>65535</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
     </row>
@@ -1551,12 +1977,21 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>65535</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
     </row>
@@ -1565,12 +2000,21 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>65535</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
     </row>
@@ -1579,12 +2023,21 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>65535</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
     </row>
@@ -1593,12 +2046,21 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>65535</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
     </row>
@@ -1607,12 +2069,21 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>65535</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
     </row>
@@ -1621,12 +2092,21 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>65535</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
     </row>
@@ -1634,53 +2114,86 @@
       <c r="A63">
         <v>61</v>
       </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>65535</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -1688,8 +2201,8 @@
       <c r="H72">
         <v>1</v>
       </c>
-      <c r="I72" t="s">
-        <v>75</v>
+      <c r="I72">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -1697,13 +2210,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>65535</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
         <v>1</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,13 +2233,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>65535</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
         <v>1</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -1725,13 +2256,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>65535</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
         <v>1</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -1739,13 +2279,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>65535</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
         <v>1</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -1753,13 +2302,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>65535</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -1767,13 +2325,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>65535</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
         <v>1</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,13 +2348,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>65535</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
         <v>1</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -1795,7 +2371,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>65535</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -1803,13 +2385,22 @@
       <c r="H80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>65535</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -1817,13 +2408,22 @@
       <c r="H81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>65535</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -1831,105 +2431,1031 @@
       <c r="H82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>65535</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>65535</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>65535</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>65535</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>65535</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>65535</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>65535</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>65535</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>65535</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>65535</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>65535</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>65535</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>65535</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>65535</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>65535</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>65535</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>65535</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>65535</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>65535</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>65535</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>65535</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>65535</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="I124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>65535</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>65535</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>65535</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>101</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>65535</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>65535</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>65535</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>65535</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>65535</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>65535</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>107</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>65535</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>65535</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="I143">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="I144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="I145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="I146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="I147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="I148">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
